--- a/state_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
+++ b/state_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U137"/>
+  <dimension ref="A1:U154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008669155631894901</v>
+        <v>0.0086716268681249</v>
       </c>
       <c r="H3" t="n">
         <v>0.029</v>
@@ -732,7 +732,7 @@
         <v>0.008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008669155631894901</v>
+        <v>0.0086716268681249</v>
       </c>
       <c r="H4" t="n">
         <v>0.029</v>
@@ -813,7 +813,7 @@
         <v>215</v>
       </c>
       <c r="G5" t="n">
-        <v>1154.74213238256</v>
+        <v>1130.93121191056</v>
       </c>
       <c r="H5" t="n">
         <v>25000</v>
@@ -898,7 +898,7 @@
         <v>215</v>
       </c>
       <c r="G6" t="n">
-        <v>1154.74213238256</v>
+        <v>1130.93121191056</v>
       </c>
       <c r="H6" t="n">
         <v>25000</v>
@@ -983,7 +983,7 @@
         <v>215</v>
       </c>
       <c r="G7" t="n">
-        <v>1154.74213238256</v>
+        <v>1130.93121191056</v>
       </c>
       <c r="H7" t="n">
         <v>25000</v>
@@ -1068,7 +1068,7 @@
         <v>215</v>
       </c>
       <c r="G8" t="n">
-        <v>1154.74213238256</v>
+        <v>1130.93121191056</v>
       </c>
       <c r="H8" t="n">
         <v>25000</v>
@@ -1153,7 +1153,7 @@
         <v>0.00249</v>
       </c>
       <c r="G9" t="n">
-        <v>0.011421853855199</v>
+        <v>0.0114314858605896</v>
       </c>
       <c r="H9" t="n">
         <v>0.155029979746117</v>
@@ -1234,7 +1234,7 @@
         <v>0.00249</v>
       </c>
       <c r="G10" t="n">
-        <v>0.011421853855199</v>
+        <v>0.0114314858605896</v>
       </c>
       <c r="H10" t="n">
         <v>0.155029979746117</v>
@@ -1473,21 +1473,21 @@
         <v>0.966</v>
       </c>
       <c r="G13" t="n">
-        <v>0.858052631578947</v>
+        <v>0.858054385964912</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I13" t="n">
-        <v>1.59435</v>
+        <v>1.59467</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.2885</v>
+        <v>0.28875</v>
       </c>
       <c r="M13" t="n">
-        <v>1.35048</v>
+        <v>1.3508</v>
       </c>
       <c r="N13" t="n">
         <v>1.55314</v>
@@ -1550,21 +1550,21 @@
         <v>0.966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.858052631578947</v>
+        <v>0.858054385964912</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I14" t="n">
-        <v>1.59435</v>
+        <v>1.59467</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.2885</v>
+        <v>0.28875</v>
       </c>
       <c r="M14" t="n">
-        <v>1.35048</v>
+        <v>1.3508</v>
       </c>
       <c r="N14" t="n">
         <v>1.55314</v>
@@ -1781,7 +1781,7 @@
         <v>0.023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0288583363142743</v>
+        <v>0.028856369323615</v>
       </c>
       <c r="H17" t="n">
         <v>0.103</v>
@@ -1858,7 +1858,7 @@
         <v>0.023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0288583363142743</v>
+        <v>0.028856369323615</v>
       </c>
       <c r="H18" t="n">
         <v>0.103</v>
@@ -2020,7 +2020,7 @@
         <v>0.008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008841427376088</v>
+        <v>0.0088435378538622</v>
       </c>
       <c r="H20" t="n">
         <v>0.029</v>
@@ -2101,7 +2101,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008841427376088</v>
+        <v>0.0088435378538622</v>
       </c>
       <c r="H21" t="n">
         <v>0.029</v>
@@ -2182,13 +2182,13 @@
         <v>260</v>
       </c>
       <c r="G22" t="n">
-        <v>1676.35502576343</v>
+        <v>1653.73465131503</v>
       </c>
       <c r="H22" t="n">
         <v>33000</v>
       </c>
       <c r="I22" t="n">
-        <v>9391.65077</v>
+        <v>8713.03954</v>
       </c>
       <c r="J22" t="n">
         <v>25</v>
@@ -2267,13 +2267,13 @@
         <v>260</v>
       </c>
       <c r="G23" t="n">
-        <v>1676.35502576343</v>
+        <v>1653.73465131503</v>
       </c>
       <c r="H23" t="n">
         <v>33000</v>
       </c>
       <c r="I23" t="n">
-        <v>9391.65077</v>
+        <v>8713.03954</v>
       </c>
       <c r="J23" t="n">
         <v>25</v>
@@ -2352,13 +2352,13 @@
         <v>260</v>
       </c>
       <c r="G24" t="n">
-        <v>1676.35502576343</v>
+        <v>1653.73465131503</v>
       </c>
       <c r="H24" t="n">
         <v>33000</v>
       </c>
       <c r="I24" t="n">
-        <v>9391.65077</v>
+        <v>8713.03954</v>
       </c>
       <c r="J24" t="n">
         <v>25</v>
@@ -2437,13 +2437,13 @@
         <v>260</v>
       </c>
       <c r="G25" t="n">
-        <v>1676.35502576343</v>
+        <v>1653.73465131503</v>
       </c>
       <c r="H25" t="n">
         <v>33000</v>
       </c>
       <c r="I25" t="n">
-        <v>9391.65077</v>
+        <v>8713.03954</v>
       </c>
       <c r="J25" t="n">
         <v>25</v>
@@ -2522,7 +2522,7 @@
         <v>0.00186</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0093731765140685</v>
+        <v>0.009392804095679301</v>
       </c>
       <c r="H26" t="n">
         <v>0.155029979746117</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00123</v>
+        <v>0.00128</v>
       </c>
       <c r="M26" t="n">
         <v>0.00872</v>
@@ -2603,7 +2603,7 @@
         <v>0.00186</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0093731765140685</v>
+        <v>0.009392804095679301</v>
       </c>
       <c r="H27" t="n">
         <v>0.155029979746117</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00123</v>
+        <v>0.00128</v>
       </c>
       <c r="M27" t="n">
         <v>0.00872</v>
@@ -2839,16 +2839,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.971</v>
+        <v>0.97085</v>
       </c>
       <c r="G30" t="n">
-        <v>0.903233333333333</v>
+        <v>0.903235</v>
       </c>
       <c r="H30" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6365</v>
+        <v>1.6367</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         <v>0.4385</v>
       </c>
       <c r="M30" t="n">
-        <v>1.3947</v>
+        <v>1.39455</v>
       </c>
       <c r="N30" t="n">
         <v>1.5728</v>
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.971</v>
+        <v>0.97085</v>
       </c>
       <c r="G31" t="n">
-        <v>0.903233333333333</v>
+        <v>0.903235</v>
       </c>
       <c r="H31" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I31" t="n">
-        <v>1.6365</v>
+        <v>1.6367</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
         <v>0.4385</v>
       </c>
       <c r="M31" t="n">
-        <v>1.3947</v>
+        <v>1.39455</v>
       </c>
       <c r="N31" t="n">
         <v>1.5728</v>
@@ -3389,7 +3389,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.009276287764751701</v>
+        <v>0.009277775271301599</v>
       </c>
       <c r="H37" t="n">
         <v>0.029</v>
@@ -3470,7 +3470,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009276287764751701</v>
+        <v>0.009277775271301599</v>
       </c>
       <c r="H38" t="n">
         <v>0.029</v>
@@ -3551,7 +3551,7 @@
         <v>288</v>
       </c>
       <c r="G39" t="n">
-        <v>1351.25502576343</v>
+        <v>1328.63465131503</v>
       </c>
       <c r="H39" t="n">
         <v>33000</v>
@@ -3636,7 +3636,7 @@
         <v>288</v>
       </c>
       <c r="G40" t="n">
-        <v>1351.25502576343</v>
+        <v>1328.63465131503</v>
       </c>
       <c r="H40" t="n">
         <v>33000</v>
@@ -3721,7 +3721,7 @@
         <v>288</v>
       </c>
       <c r="G41" t="n">
-        <v>1351.25502576343</v>
+        <v>1328.63465131503</v>
       </c>
       <c r="H41" t="n">
         <v>33000</v>
@@ -3806,7 +3806,7 @@
         <v>288</v>
       </c>
       <c r="G42" t="n">
-        <v>1351.25502576343</v>
+        <v>1328.63465131503</v>
       </c>
       <c r="H42" t="n">
         <v>33000</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00179</v>
+        <v>0.00185</v>
       </c>
       <c r="G43" t="n">
-        <v>0.008074621244051901</v>
+        <v>0.0081078627018123</v>
       </c>
       <c r="H43" t="n">
         <v>0.155029979746117</v>
@@ -3902,7 +3902,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00123</v>
+        <v>0.00128</v>
       </c>
       <c r="M43" t="n">
         <v>0.00842</v>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00179</v>
+        <v>0.00185</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008074621244051901</v>
+        <v>0.0081078627018123</v>
       </c>
       <c r="H44" t="n">
         <v>0.155029979746117</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00123</v>
+        <v>0.00128</v>
       </c>
       <c r="M44" t="n">
         <v>0.00842</v>
@@ -4214,10 +4214,10 @@
         <v>0.9273</v>
       </c>
       <c r="H47" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I47" t="n">
-        <v>1.704</v>
+        <v>1.70395</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4225,10 +4225,10 @@
         <v>0.4385</v>
       </c>
       <c r="M47" t="n">
-        <v>1.4372</v>
+        <v>1.43685</v>
       </c>
       <c r="N47" t="n">
-        <v>1.6255</v>
+        <v>1.62565</v>
       </c>
       <c r="O47" t="n">
         <v>1827830.498</v>
@@ -4291,10 +4291,10 @@
         <v>0.9273</v>
       </c>
       <c r="H48" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I48" t="n">
-        <v>1.704</v>
+        <v>1.70395</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4302,10 +4302,10 @@
         <v>0.4385</v>
       </c>
       <c r="M48" t="n">
-        <v>1.4372</v>
+        <v>1.43685</v>
       </c>
       <c r="N48" t="n">
-        <v>1.6255</v>
+        <v>1.62565</v>
       </c>
       <c r="O48" t="n">
         <v>1827830.498</v>
@@ -4758,7 +4758,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0100563936217887</v>
+        <v>0.0100573307811641</v>
       </c>
       <c r="H54" t="n">
         <v>0.029</v>
@@ -4839,7 +4839,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0100563936217887</v>
+        <v>0.0100573307811641</v>
       </c>
       <c r="H55" t="n">
         <v>0.029</v>
@@ -4920,13 +4920,13 @@
         <v>410</v>
       </c>
       <c r="G56" t="n">
-        <v>2169.76782281027</v>
+        <v>2146.76405218477</v>
       </c>
       <c r="H56" t="n">
         <v>34000</v>
       </c>
       <c r="I56" t="n">
-        <v>11728.71585</v>
+        <v>10982.24349</v>
       </c>
       <c r="J56" t="n">
         <v>35.5932203389831</v>
@@ -5005,13 +5005,13 @@
         <v>410</v>
       </c>
       <c r="G57" t="n">
-        <v>2169.76782281027</v>
+        <v>2146.76405218477</v>
       </c>
       <c r="H57" t="n">
         <v>34000</v>
       </c>
       <c r="I57" t="n">
-        <v>11728.71585</v>
+        <v>10982.24349</v>
       </c>
       <c r="J57" t="n">
         <v>35.5932203389831</v>
@@ -5090,13 +5090,13 @@
         <v>410</v>
       </c>
       <c r="G58" t="n">
-        <v>2169.76782281027</v>
+        <v>2146.76405218477</v>
       </c>
       <c r="H58" t="n">
         <v>34000</v>
       </c>
       <c r="I58" t="n">
-        <v>11728.71585</v>
+        <v>10982.24349</v>
       </c>
       <c r="J58" t="n">
         <v>35.5932203389831</v>
@@ -5175,13 +5175,13 @@
         <v>410</v>
       </c>
       <c r="G59" t="n">
-        <v>2169.76782281027</v>
+        <v>2146.76405218477</v>
       </c>
       <c r="H59" t="n">
         <v>34000</v>
       </c>
       <c r="I59" t="n">
-        <v>11728.71585</v>
+        <v>10982.24349</v>
       </c>
       <c r="J59" t="n">
         <v>35.5932203389831</v>
@@ -5260,7 +5260,7 @@
         <v>0.0026</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0098252730035041</v>
+        <v>0.0098708586295222</v>
       </c>
       <c r="H60" t="n">
         <v>0.155029979746117</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00224</v>
+        <v>0.00231</v>
       </c>
       <c r="M60" t="n">
         <v>0.01028</v>
@@ -5341,7 +5341,7 @@
         <v>0.0026</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0098252730035041</v>
+        <v>0.0098708586295222</v>
       </c>
       <c r="H61" t="n">
         <v>0.155029979746117</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00224</v>
+        <v>0.00231</v>
       </c>
       <c r="M61" t="n">
         <v>0.01028</v>
@@ -5580,13 +5580,13 @@
         <v>1.01</v>
       </c>
       <c r="G64" t="n">
-        <v>0.94528813559322</v>
+        <v>0.945301694915254</v>
       </c>
       <c r="H64" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I64" t="n">
-        <v>1.7086</v>
+        <v>1.70855</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5594,10 +5594,10 @@
         <v>0.44</v>
       </c>
       <c r="M64" t="n">
-        <v>1.43788</v>
+        <v>1.43762</v>
       </c>
       <c r="N64" t="n">
-        <v>1.6267</v>
+        <v>1.62681</v>
       </c>
       <c r="O64" t="n">
         <v>1827830.498</v>
@@ -5657,13 +5657,13 @@
         <v>1.01</v>
       </c>
       <c r="G65" t="n">
-        <v>0.94528813559322</v>
+        <v>0.945301694915254</v>
       </c>
       <c r="H65" t="n">
-        <v>1.8</v>
+        <v>1.8002</v>
       </c>
       <c r="I65" t="n">
-        <v>1.7086</v>
+        <v>1.70855</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5671,10 +5671,10 @@
         <v>0.44</v>
       </c>
       <c r="M65" t="n">
-        <v>1.43788</v>
+        <v>1.43762</v>
       </c>
       <c r="N65" t="n">
-        <v>1.6267</v>
+        <v>1.62681</v>
       </c>
       <c r="O65" t="n">
         <v>1827830.498</v>
@@ -6127,7 +6127,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0102089359946701</v>
+        <v>0.0102098731540454</v>
       </c>
       <c r="H71" t="n">
         <v>0.029</v>
@@ -6208,7 +6208,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0102089359946701</v>
+        <v>0.0102098731540454</v>
       </c>
       <c r="H72" t="n">
         <v>0.029</v>
@@ -6289,13 +6289,13 @@
         <v>420</v>
       </c>
       <c r="G73" t="n">
-        <v>2177.66037147941</v>
+        <v>2154.25998411899</v>
       </c>
       <c r="H73" t="n">
         <v>34000</v>
       </c>
       <c r="I73" t="n">
-        <v>12076.78093</v>
+        <v>11262.44745</v>
       </c>
       <c r="J73" t="n">
         <v>37.9310344827586</v>
@@ -6374,13 +6374,13 @@
         <v>420</v>
       </c>
       <c r="G74" t="n">
-        <v>2177.66037147941</v>
+        <v>2154.25998411899</v>
       </c>
       <c r="H74" t="n">
         <v>34000</v>
       </c>
       <c r="I74" t="n">
-        <v>12076.78093</v>
+        <v>11262.44745</v>
       </c>
       <c r="J74" t="n">
         <v>37.9310344827586</v>
@@ -6459,13 +6459,13 @@
         <v>420</v>
       </c>
       <c r="G75" t="n">
-        <v>2177.66037147941</v>
+        <v>2154.25998411899</v>
       </c>
       <c r="H75" t="n">
         <v>34000</v>
       </c>
       <c r="I75" t="n">
-        <v>12076.78093</v>
+        <v>11262.44745</v>
       </c>
       <c r="J75" t="n">
         <v>37.9310344827586</v>
@@ -6544,13 +6544,13 @@
         <v>420</v>
       </c>
       <c r="G76" t="n">
-        <v>2177.66037147941</v>
+        <v>2154.25998411899</v>
       </c>
       <c r="H76" t="n">
         <v>34000</v>
       </c>
       <c r="I76" t="n">
-        <v>12076.78093</v>
+        <v>11262.44745</v>
       </c>
       <c r="J76" t="n">
         <v>37.9310344827586</v>
@@ -6629,7 +6629,7 @@
         <v>0.00419</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0084196772623374</v>
+        <v>0.0084761342969707</v>
       </c>
       <c r="H77" t="n">
         <v>0.0719427346999874</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00332</v>
+        <v>0.00351</v>
       </c>
       <c r="M77" t="n">
         <v>0.01093</v>
@@ -6710,7 +6710,7 @@
         <v>0.00419</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0084196772623374</v>
+        <v>0.0084761342969707</v>
       </c>
       <c r="H78" t="n">
         <v>0.0719427346999874</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00332</v>
+        <v>0.00351</v>
       </c>
       <c r="M78" t="n">
         <v>0.01093</v>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.976</v>
+        <v>0.9757</v>
       </c>
       <c r="G81" t="n">
         <v>0.917542372881356</v>
@@ -6955,7 +6955,7 @@
         <v>1.8</v>
       </c>
       <c r="I81" t="n">
-        <v>1.6921</v>
+        <v>1.69205</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6966,7 +6966,7 @@
         <v>1.4241</v>
       </c>
       <c r="N81" t="n">
-        <v>1.6267</v>
+        <v>1.62681</v>
       </c>
       <c r="O81" t="n">
         <v>1827830.498</v>
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.976</v>
+        <v>0.9757</v>
       </c>
       <c r="G82" t="n">
         <v>0.917542372881356</v>
@@ -7032,7 +7032,7 @@
         <v>1.8</v>
       </c>
       <c r="I82" t="n">
-        <v>1.6921</v>
+        <v>1.69205</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7043,7 +7043,7 @@
         <v>1.4241</v>
       </c>
       <c r="N82" t="n">
-        <v>1.6267</v>
+        <v>1.62681</v>
       </c>
       <c r="O82" t="n">
         <v>1827830.498</v>
@@ -7496,7 +7496,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>0.009961908496115101</v>
+        <v>0.0099623461832844</v>
       </c>
       <c r="H88" t="n">
         <v>0.029</v>
@@ -7577,7 +7577,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>0.009961908496115101</v>
+        <v>0.0099623461832844</v>
       </c>
       <c r="H89" t="n">
         <v>0.029</v>
@@ -7998,7 +7998,7 @@
         <v>0.00533</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009155065596841899</v>
+        <v>0.009206912688541</v>
       </c>
       <c r="H94" t="n">
         <v>0.0493276240272748</v>
@@ -8079,7 +8079,7 @@
         <v>0.00533</v>
       </c>
       <c r="G95" t="n">
-        <v>0.009155065596841899</v>
+        <v>0.009206912688541</v>
       </c>
       <c r="H95" t="n">
         <v>0.0493276240272748</v>
@@ -8865,7 +8865,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>0.010257276803463</v>
+        <v>0.0102579472878428</v>
       </c>
       <c r="H105" t="n">
         <v>0.029</v>
@@ -8946,7 +8946,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>0.010257276803463</v>
+        <v>0.0102579472878428</v>
       </c>
       <c r="H106" t="n">
         <v>0.029</v>
@@ -9367,7 +9367,7 @@
         <v>0.00533</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0106597950904516</v>
+        <v>0.0106984248320634</v>
       </c>
       <c r="H111" t="n">
         <v>0.0514401473126152</v>
@@ -9448,7 +9448,7 @@
         <v>0.00533</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0106597950904516</v>
+        <v>0.0106984248320634</v>
       </c>
       <c r="H112" t="n">
         <v>0.0514401473126152</v>
@@ -10234,7 +10234,7 @@
         <v>0.0105</v>
       </c>
       <c r="G122" t="n">
-        <v>0.011309000941394</v>
+        <v>0.0113096714257738</v>
       </c>
       <c r="H122" t="n">
         <v>0.037</v>
@@ -10315,7 +10315,7 @@
         <v>0.0105</v>
       </c>
       <c r="G123" t="n">
-        <v>0.011309000941394</v>
+        <v>0.0113096714257738</v>
       </c>
       <c r="H123" t="n">
         <v>0.037</v>
@@ -10736,7 +10736,7 @@
         <v>0.00658</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0127937167381692</v>
+        <v>0.0128148457219132</v>
       </c>
       <c r="H128" t="n">
         <v>0.0514401473126152</v>
@@ -10817,7 +10817,7 @@
         <v>0.00658</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0127937167381692</v>
+        <v>0.0128148457219132</v>
       </c>
       <c r="H129" t="n">
         <v>0.0514401473126152</v>
@@ -11492,6 +11492,1375 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.5790243902439</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.8201</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3.327</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P138" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0117620498761844</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.01647</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.02156</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P139" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0117620498761844</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.01647</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.02156</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P140" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>466</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5464.44827586207</v>
+      </c>
+      <c r="H141" t="n">
+        <v>110000</v>
+      </c>
+      <c r="I141" t="n">
+        <v>32324</v>
+      </c>
+      <c r="J141" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K141" t="n">
+        <v>62.0689655172414</v>
+      </c>
+      <c r="L141" t="n">
+        <v>280</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2850.04</v>
+      </c>
+      <c r="N141" t="n">
+        <v>27160</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P141" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>466</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5464.44827586207</v>
+      </c>
+      <c r="H142" t="n">
+        <v>110000</v>
+      </c>
+      <c r="I142" t="n">
+        <v>32324</v>
+      </c>
+      <c r="J142" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K142" t="n">
+        <v>62.0689655172414</v>
+      </c>
+      <c r="L142" t="n">
+        <v>280</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2850.04</v>
+      </c>
+      <c r="N142" t="n">
+        <v>27160</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P142" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>466</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5464.44827586207</v>
+      </c>
+      <c r="H143" t="n">
+        <v>110000</v>
+      </c>
+      <c r="I143" t="n">
+        <v>32324</v>
+      </c>
+      <c r="J143" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K143" t="n">
+        <v>62.0689655172414</v>
+      </c>
+      <c r="L143" t="n">
+        <v>280</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2850.04</v>
+      </c>
+      <c r="N143" t="n">
+        <v>27160</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P143" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>466</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5464.44827586207</v>
+      </c>
+      <c r="H144" t="n">
+        <v>110000</v>
+      </c>
+      <c r="I144" t="n">
+        <v>32324</v>
+      </c>
+      <c r="J144" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K144" t="n">
+        <v>62.0689655172414</v>
+      </c>
+      <c r="L144" t="n">
+        <v>280</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2850.04</v>
+      </c>
+      <c r="N144" t="n">
+        <v>27160</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P144" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0134700020211978</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.052395069180857</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.04535</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.02541</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P145" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0134700020211978</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.052395069180857</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.04535</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.02541</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P146" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.819457627118644</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.6325</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.2076</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.4268</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P147" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.819457627118644</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.6325</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.2076</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1.4268</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P148" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.848983050847458</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P149" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.848983050847458</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P150" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.15474576271186</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.9015</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.5741</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.7568</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P151" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.15474576271186</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.9015</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.5741</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1.7568</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P152" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0570508474576271</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.21615</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.08863</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.17788</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P153" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0570508474576271</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.21615</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.08863</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.17788</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1827830.498</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
+++ b/state_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
@@ -813,7 +813,7 @@
         <v>215</v>
       </c>
       <c r="G5" t="n">
-        <v>1130.93121191056</v>
+        <v>1090.46189505892</v>
       </c>
       <c r="H5" t="n">
         <v>25000</v>
@@ -898,7 +898,7 @@
         <v>215</v>
       </c>
       <c r="G6" t="n">
-        <v>1130.93121191056</v>
+        <v>1090.46189505892</v>
       </c>
       <c r="H6" t="n">
         <v>25000</v>
@@ -983,7 +983,7 @@
         <v>215</v>
       </c>
       <c r="G7" t="n">
-        <v>1130.93121191056</v>
+        <v>1090.46189505892</v>
       </c>
       <c r="H7" t="n">
         <v>25000</v>
@@ -1068,7 +1068,7 @@
         <v>215</v>
       </c>
       <c r="G8" t="n">
-        <v>1130.93121191056</v>
+        <v>1090.46189505892</v>
       </c>
       <c r="H8" t="n">
         <v>25000</v>
@@ -2182,13 +2182,13 @@
         <v>260</v>
       </c>
       <c r="G22" t="n">
-        <v>1653.73465131503</v>
+        <v>1615.28880030598</v>
       </c>
       <c r="H22" t="n">
         <v>33000</v>
       </c>
       <c r="I22" t="n">
-        <v>8713.03954</v>
+        <v>7559.66401</v>
       </c>
       <c r="J22" t="n">
         <v>25</v>
@@ -2267,13 +2267,13 @@
         <v>260</v>
       </c>
       <c r="G23" t="n">
-        <v>1653.73465131503</v>
+        <v>1615.28880030598</v>
       </c>
       <c r="H23" t="n">
         <v>33000</v>
       </c>
       <c r="I23" t="n">
-        <v>8713.03954</v>
+        <v>7559.66401</v>
       </c>
       <c r="J23" t="n">
         <v>25</v>
@@ -2352,13 +2352,13 @@
         <v>260</v>
       </c>
       <c r="G24" t="n">
-        <v>1653.73465131503</v>
+        <v>1615.28880030598</v>
       </c>
       <c r="H24" t="n">
         <v>33000</v>
       </c>
       <c r="I24" t="n">
-        <v>8713.03954</v>
+        <v>7559.66401</v>
       </c>
       <c r="J24" t="n">
         <v>25</v>
@@ -2437,13 +2437,13 @@
         <v>260</v>
       </c>
       <c r="G25" t="n">
-        <v>1653.73465131503</v>
+        <v>1615.28880030598</v>
       </c>
       <c r="H25" t="n">
         <v>33000</v>
       </c>
       <c r="I25" t="n">
-        <v>8713.03954</v>
+        <v>7559.66401</v>
       </c>
       <c r="J25" t="n">
         <v>25</v>
@@ -3551,7 +3551,7 @@
         <v>288</v>
       </c>
       <c r="G39" t="n">
-        <v>1328.63465131503</v>
+        <v>1290.18880030598</v>
       </c>
       <c r="H39" t="n">
         <v>33000</v>
@@ -3636,7 +3636,7 @@
         <v>288</v>
       </c>
       <c r="G40" t="n">
-        <v>1328.63465131503</v>
+        <v>1290.18880030598</v>
       </c>
       <c r="H40" t="n">
         <v>33000</v>
@@ -3721,7 +3721,7 @@
         <v>288</v>
       </c>
       <c r="G41" t="n">
-        <v>1328.63465131503</v>
+        <v>1290.18880030598</v>
       </c>
       <c r="H41" t="n">
         <v>33000</v>
@@ -3806,7 +3806,7 @@
         <v>288</v>
       </c>
       <c r="G42" t="n">
-        <v>1328.63465131503</v>
+        <v>1290.18880030598</v>
       </c>
       <c r="H42" t="n">
         <v>33000</v>
@@ -4920,13 +4920,13 @@
         <v>410</v>
       </c>
       <c r="G56" t="n">
-        <v>2146.76405218477</v>
+        <v>2107.66657658235</v>
       </c>
       <c r="H56" t="n">
         <v>34000</v>
       </c>
       <c r="I56" t="n">
-        <v>10982.24349</v>
+        <v>9713.530409999999</v>
       </c>
       <c r="J56" t="n">
         <v>35.5932203389831</v>
@@ -5005,13 +5005,13 @@
         <v>410</v>
       </c>
       <c r="G57" t="n">
-        <v>2146.76405218477</v>
+        <v>2107.66657658235</v>
       </c>
       <c r="H57" t="n">
         <v>34000</v>
       </c>
       <c r="I57" t="n">
-        <v>10982.24349</v>
+        <v>9713.530409999999</v>
       </c>
       <c r="J57" t="n">
         <v>35.5932203389831</v>
@@ -5090,13 +5090,13 @@
         <v>410</v>
       </c>
       <c r="G58" t="n">
-        <v>2146.76405218477</v>
+        <v>2107.66657658235</v>
       </c>
       <c r="H58" t="n">
         <v>34000</v>
       </c>
       <c r="I58" t="n">
-        <v>10982.24349</v>
+        <v>9713.530409999999</v>
       </c>
       <c r="J58" t="n">
         <v>35.5932203389831</v>
@@ -5175,13 +5175,13 @@
         <v>410</v>
       </c>
       <c r="G59" t="n">
-        <v>2146.76405218477</v>
+        <v>2107.66657658235</v>
       </c>
       <c r="H59" t="n">
         <v>34000</v>
       </c>
       <c r="I59" t="n">
-        <v>10982.24349</v>
+        <v>9713.530409999999</v>
       </c>
       <c r="J59" t="n">
         <v>35.5932203389831</v>
@@ -6289,13 +6289,13 @@
         <v>420</v>
       </c>
       <c r="G73" t="n">
-        <v>2154.25998411899</v>
+        <v>2114.48841410963</v>
       </c>
       <c r="H73" t="n">
         <v>34000</v>
       </c>
       <c r="I73" t="n">
-        <v>11262.44745</v>
+        <v>9878.39681</v>
       </c>
       <c r="J73" t="n">
         <v>37.9310344827586</v>
@@ -6374,13 +6374,13 @@
         <v>420</v>
       </c>
       <c r="G74" t="n">
-        <v>2154.25998411899</v>
+        <v>2114.48841410963</v>
       </c>
       <c r="H74" t="n">
         <v>34000</v>
       </c>
       <c r="I74" t="n">
-        <v>11262.44745</v>
+        <v>9878.39681</v>
       </c>
       <c r="J74" t="n">
         <v>37.9310344827586</v>
@@ -6459,13 +6459,13 @@
         <v>420</v>
       </c>
       <c r="G75" t="n">
-        <v>2154.25998411899</v>
+        <v>2114.48841410963</v>
       </c>
       <c r="H75" t="n">
         <v>34000</v>
       </c>
       <c r="I75" t="n">
-        <v>11262.44745</v>
+        <v>9878.39681</v>
       </c>
       <c r="J75" t="n">
         <v>37.9310344827586</v>
@@ -6544,13 +6544,13 @@
         <v>420</v>
       </c>
       <c r="G76" t="n">
-        <v>2154.25998411899</v>
+        <v>2114.48841410963</v>
       </c>
       <c r="H76" t="n">
         <v>34000</v>
       </c>
       <c r="I76" t="n">
-        <v>11262.44745</v>
+        <v>9878.39681</v>
       </c>
       <c r="J76" t="n">
         <v>37.9310344827586</v>

--- a/state_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
+++ b/state_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:U170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +657,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>2.05</v>
@@ -669,7 +672,7 @@
         <v>3.215</v>
       </c>
       <c r="L2">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M2">
         <v>2.7017</v>
@@ -684,19 +687,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -713,13 +716,13 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>0.008</v>
       </c>
       <c r="G3">
-        <v>0.0086716268681249</v>
+        <v>0.008671238568607</v>
       </c>
       <c r="H3">
         <v>0.029</v>
@@ -743,19 +746,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -772,13 +775,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>0.008</v>
       </c>
       <c r="G4">
-        <v>0.0086716268681249</v>
+        <v>0.008671238568607</v>
       </c>
       <c r="H4">
         <v>0.029</v>
@@ -802,19 +805,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -831,13 +834,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>215</v>
       </c>
       <c r="G5">
-        <v>1141.70202231269</v>
+        <v>1142.07902823641</v>
       </c>
       <c r="H5">
         <v>25000</v>
@@ -852,7 +855,7 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L5">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="M5">
         <v>864.55</v>
@@ -867,19 +870,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -896,13 +899,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>215</v>
       </c>
       <c r="G6">
-        <v>1141.70202231269</v>
+        <v>1142.07902823641</v>
       </c>
       <c r="H6">
         <v>25000</v>
@@ -917,7 +920,7 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L6">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="M6">
         <v>864.55</v>
@@ -932,19 +935,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -961,13 +964,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>215</v>
       </c>
       <c r="G7">
-        <v>1141.70202231269</v>
+        <v>1142.07902823641</v>
       </c>
       <c r="H7">
         <v>25000</v>
@@ -982,7 +985,7 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L7">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="M7">
         <v>864.55</v>
@@ -997,19 +1000,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1026,13 +1029,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>215</v>
       </c>
       <c r="G8">
-        <v>1141.70202231269</v>
+        <v>1142.07902823641</v>
       </c>
       <c r="H8">
         <v>25000</v>
@@ -1047,7 +1050,7 @@
         <v>45.6140350877193</v>
       </c>
       <c r="L8">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="M8">
         <v>864.55</v>
@@ -1062,19 +1065,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1091,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>0.00249</v>
       </c>
       <c r="G9">
-        <v>0.0114314858605896</v>
+        <v>0.0114326249741738</v>
       </c>
       <c r="H9">
         <v>0.155029979746117</v>
@@ -1106,7 +1109,7 @@
         <v>0.05005</v>
       </c>
       <c r="L9">
-        <v>0.00182</v>
+        <v>0.00235</v>
       </c>
       <c r="M9">
         <v>0.011</v>
@@ -1121,19 +1124,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1150,13 +1153,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>0.00249</v>
       </c>
       <c r="G10">
-        <v>0.0114314858605896</v>
+        <v>0.0114326249741738</v>
       </c>
       <c r="H10">
         <v>0.155029979746117</v>
@@ -1165,7 +1168,7 @@
         <v>0.05005</v>
       </c>
       <c r="L10">
-        <v>0.00182</v>
+        <v>0.00235</v>
       </c>
       <c r="M10">
         <v>0.011</v>
@@ -1180,19 +1183,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1209,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0.95</v>
@@ -1224,7 +1227,7 @@
         <v>1.5365</v>
       </c>
       <c r="L11">
-        <v>0.2744</v>
+        <v>0.3986</v>
       </c>
       <c r="M11">
         <v>1.31935</v>
@@ -1239,19 +1242,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1268,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0.95</v>
@@ -1283,7 +1286,7 @@
         <v>1.5365</v>
       </c>
       <c r="L12">
-        <v>0.2744</v>
+        <v>0.3986</v>
       </c>
       <c r="M12">
         <v>1.31935</v>
@@ -1298,19 +1301,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1324,7 +1327,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>0.966</v>
@@ -1339,7 +1342,7 @@
         <v>1.59467</v>
       </c>
       <c r="L13">
-        <v>0.28875</v>
+        <v>0.41905</v>
       </c>
       <c r="M13">
         <v>1.3508</v>
@@ -1354,19 +1357,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,7 +1383,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>0.966</v>
@@ -1395,7 +1398,7 @@
         <v>1.59467</v>
       </c>
       <c r="L14">
-        <v>0.28875</v>
+        <v>0.41905</v>
       </c>
       <c r="M14">
         <v>1.3508</v>
@@ -1410,19 +1413,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1436,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>1.2</v>
@@ -1451,7 +1454,7 @@
         <v>1.98195</v>
       </c>
       <c r="L15">
-        <v>0.66</v>
+        <v>0.7315</v>
       </c>
       <c r="M15">
         <v>1.64782</v>
@@ -1466,19 +1469,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1492,7 +1495,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>1.2</v>
@@ -1507,7 +1510,7 @@
         <v>1.98195</v>
       </c>
       <c r="L16">
-        <v>0.66</v>
+        <v>0.7315</v>
       </c>
       <c r="M16">
         <v>1.64782</v>
@@ -1522,19 +1525,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1548,13 +1551,13 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0.023</v>
       </c>
       <c r="G17">
-        <v>0.028856369323615</v>
+        <v>0.0288593500723086</v>
       </c>
       <c r="H17">
         <v>0.103</v>
@@ -1563,7 +1566,7 @@
         <v>0.0871</v>
       </c>
       <c r="L17">
-        <v>0.026</v>
+        <v>0.0255</v>
       </c>
       <c r="M17">
         <v>0.03681</v>
@@ -1578,19 +1581,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1604,13 +1607,13 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0.023</v>
       </c>
       <c r="G18">
-        <v>0.028856369323615</v>
+        <v>0.0288593500723086</v>
       </c>
       <c r="H18">
         <v>0.103</v>
@@ -1619,7 +1622,7 @@
         <v>0.0871</v>
       </c>
       <c r="L18">
-        <v>0.026</v>
+        <v>0.0255</v>
       </c>
       <c r="M18">
         <v>0.03681</v>
@@ -1634,19 +1637,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1663,7 +1666,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>2.13</v>
@@ -1678,7 +1681,7 @@
         <v>2.995</v>
       </c>
       <c r="L19">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="M19">
         <v>2.5694</v>
@@ -1693,19 +1696,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1722,13 +1725,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0.008</v>
       </c>
       <c r="G20">
-        <v>0.0088435378538622</v>
+        <v>0.0088429258445403</v>
       </c>
       <c r="H20">
         <v>0.029</v>
@@ -1737,7 +1740,7 @@
         <v>0.0215</v>
       </c>
       <c r="L20">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M20">
         <v>0.012</v>
@@ -1752,19 +1755,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1781,13 +1784,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>0.008</v>
       </c>
       <c r="G21">
-        <v>0.0088435378538622</v>
+        <v>0.0088429258445403</v>
       </c>
       <c r="H21">
         <v>0.029</v>
@@ -1796,7 +1799,7 @@
         <v>0.0215</v>
       </c>
       <c r="L21">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M21">
         <v>0.012</v>
@@ -1811,19 +1814,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1840,19 +1843,19 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>260</v>
       </c>
       <c r="G22">
-        <v>1663.96692119705</v>
+        <v>1664.32507682459</v>
       </c>
       <c r="H22">
         <v>33000</v>
       </c>
       <c r="I22">
-        <v>9020.00764</v>
+        <v>9030.7523</v>
       </c>
       <c r="J22">
         <v>25</v>
@@ -1861,7 +1864,7 @@
         <v>50</v>
       </c>
       <c r="L22">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="M22">
         <v>886.4</v>
@@ -1876,19 +1879,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1905,19 +1908,19 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>260</v>
       </c>
       <c r="G23">
-        <v>1663.96692119705</v>
+        <v>1664.32507682459</v>
       </c>
       <c r="H23">
         <v>33000</v>
       </c>
       <c r="I23">
-        <v>9020.00764</v>
+        <v>9030.7523</v>
       </c>
       <c r="J23">
         <v>25</v>
@@ -1926,7 +1929,7 @@
         <v>50</v>
       </c>
       <c r="L23">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="M23">
         <v>886.4</v>
@@ -1941,19 +1944,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1970,19 +1973,19 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>260</v>
       </c>
       <c r="G24">
-        <v>1663.96692119705</v>
+        <v>1664.32507682459</v>
       </c>
       <c r="H24">
         <v>33000</v>
       </c>
       <c r="I24">
-        <v>9020.00764</v>
+        <v>9030.7523</v>
       </c>
       <c r="J24">
         <v>25</v>
@@ -1991,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="L24">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="M24">
         <v>886.4</v>
@@ -2006,19 +2009,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2035,19 +2038,19 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>260</v>
       </c>
       <c r="G25">
-        <v>1663.96692119705</v>
+        <v>1664.32507682459</v>
       </c>
       <c r="H25">
         <v>33000</v>
       </c>
       <c r="I25">
-        <v>9020.00764</v>
+        <v>9030.7523</v>
       </c>
       <c r="J25">
         <v>25</v>
@@ -2056,7 +2059,7 @@
         <v>50</v>
       </c>
       <c r="L25">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="M25">
         <v>886.4</v>
@@ -2071,19 +2074,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2100,13 +2103,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>0.00186</v>
       </c>
       <c r="G26">
-        <v>0.009392804095679301</v>
+        <v>0.0093942643022454</v>
       </c>
       <c r="H26">
         <v>0.155029979746117</v>
@@ -2115,7 +2118,7 @@
         <v>0.04889</v>
       </c>
       <c r="L26">
-        <v>0.00128</v>
+        <v>0.00141</v>
       </c>
       <c r="M26">
         <v>0.00872</v>
@@ -2130,19 +2133,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2159,13 +2162,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>0.00186</v>
       </c>
       <c r="G27">
-        <v>0.009392804095679301</v>
+        <v>0.0093942643022454</v>
       </c>
       <c r="H27">
         <v>0.155029979746117</v>
@@ -2174,7 +2177,7 @@
         <v>0.04889</v>
       </c>
       <c r="L27">
-        <v>0.00128</v>
+        <v>0.00141</v>
       </c>
       <c r="M27">
         <v>0.00872</v>
@@ -2189,19 +2192,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2218,7 +2221,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>0.9520999999999999</v>
@@ -2233,7 +2236,7 @@
         <v>1.58435</v>
       </c>
       <c r="L28">
-        <v>0.42145</v>
+        <v>0.5215</v>
       </c>
       <c r="M28">
         <v>1.35523</v>
@@ -2248,19 +2251,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2277,7 +2280,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>0.9520999999999999</v>
@@ -2292,7 +2295,7 @@
         <v>1.58435</v>
       </c>
       <c r="L29">
-        <v>0.42145</v>
+        <v>0.5215</v>
       </c>
       <c r="M29">
         <v>1.35523</v>
@@ -2307,19 +2310,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2333,7 +2336,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>0.97085</v>
@@ -2348,7 +2351,7 @@
         <v>1.6367</v>
       </c>
       <c r="L30">
-        <v>0.4385</v>
+        <v>0.53305</v>
       </c>
       <c r="M30">
         <v>1.39455</v>
@@ -2363,19 +2366,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2389,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>0.97085</v>
@@ -2404,7 +2407,7 @@
         <v>1.6367</v>
       </c>
       <c r="L31">
-        <v>0.4385</v>
+        <v>0.53305</v>
       </c>
       <c r="M31">
         <v>1.39455</v>
@@ -2419,19 +2422,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2445,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>1.25</v>
@@ -2460,7 +2463,7 @@
         <v>1.9865</v>
       </c>
       <c r="L32">
-        <v>0.6965</v>
+        <v>0.78</v>
       </c>
       <c r="M32">
         <v>1.7036</v>
@@ -2475,19 +2478,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2501,7 +2504,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>1.25</v>
@@ -2516,7 +2519,7 @@
         <v>1.9865</v>
       </c>
       <c r="L33">
-        <v>0.6965</v>
+        <v>0.78</v>
       </c>
       <c r="M33">
         <v>1.7036</v>
@@ -2531,19 +2534,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2557,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>0.025</v>
@@ -2572,7 +2575,7 @@
         <v>0.095</v>
       </c>
       <c r="L34">
-        <v>0.0265</v>
+        <v>0.026</v>
       </c>
       <c r="M34">
         <v>0.0344</v>
@@ -2587,19 +2590,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2613,7 +2616,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>0.025</v>
@@ -2628,7 +2631,7 @@
         <v>0.095</v>
       </c>
       <c r="L35">
-        <v>0.0265</v>
+        <v>0.026</v>
       </c>
       <c r="M35">
         <v>0.0344</v>
@@ -2643,19 +2646,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2672,7 +2675,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>1.95</v>
@@ -2687,7 +2690,7 @@
         <v>2.9975</v>
       </c>
       <c r="L36">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="M36">
         <v>2.4583</v>
@@ -2702,19 +2705,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2731,13 +2734,13 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>0.008999999999999999</v>
       </c>
       <c r="G37">
-        <v>0.009277775271301599</v>
+        <v>0.009277228857886</v>
       </c>
       <c r="H37">
         <v>0.029</v>
@@ -2761,19 +2764,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2790,13 +2793,13 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <v>0.008999999999999999</v>
       </c>
       <c r="G38">
-        <v>0.009277775271301599</v>
+        <v>0.009277228857886</v>
       </c>
       <c r="H38">
         <v>0.029</v>
@@ -2820,19 +2823,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2849,13 +2852,13 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39">
         <v>288</v>
       </c>
       <c r="G39">
-        <v>1338.86692119705</v>
+        <v>1339.22507682459</v>
       </c>
       <c r="H39">
         <v>33000</v>
@@ -2870,7 +2873,7 @@
         <v>55</v>
       </c>
       <c r="L39">
-        <v>227.5</v>
+        <v>288</v>
       </c>
       <c r="M39">
         <v>1281</v>
@@ -2885,19 +2888,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2914,13 +2917,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>288</v>
       </c>
       <c r="G40">
-        <v>1338.86692119705</v>
+        <v>1339.22507682459</v>
       </c>
       <c r="H40">
         <v>33000</v>
@@ -2935,7 +2938,7 @@
         <v>55</v>
       </c>
       <c r="L40">
-        <v>227.5</v>
+        <v>288</v>
       </c>
       <c r="M40">
         <v>1281</v>
@@ -2950,19 +2953,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2979,13 +2982,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>288</v>
       </c>
       <c r="G41">
-        <v>1338.86692119705</v>
+        <v>1339.22507682459</v>
       </c>
       <c r="H41">
         <v>33000</v>
@@ -3000,7 +3003,7 @@
         <v>55</v>
       </c>
       <c r="L41">
-        <v>227.5</v>
+        <v>288</v>
       </c>
       <c r="M41">
         <v>1281</v>
@@ -3015,19 +3018,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3044,13 +3047,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <v>288</v>
       </c>
       <c r="G42">
-        <v>1338.86692119705</v>
+        <v>1339.22507682459</v>
       </c>
       <c r="H42">
         <v>33000</v>
@@ -3065,7 +3068,7 @@
         <v>55</v>
       </c>
       <c r="L42">
-        <v>227.5</v>
+        <v>288</v>
       </c>
       <c r="M42">
         <v>1281</v>
@@ -3080,19 +3083,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3109,13 +3112,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43">
-        <v>0.00185</v>
+        <v>0.00186</v>
       </c>
       <c r="G43">
-        <v>0.0081078627018123</v>
+        <v>0.008109183898018501</v>
       </c>
       <c r="H43">
         <v>0.155029979746117</v>
@@ -3124,7 +3127,7 @@
         <v>0.03781</v>
       </c>
       <c r="L43">
-        <v>0.00128</v>
+        <v>0.00141</v>
       </c>
       <c r="M43">
         <v>0.00842</v>
@@ -3139,19 +3142,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3168,13 +3171,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44">
-        <v>0.00185</v>
+        <v>0.00186</v>
       </c>
       <c r="G44">
-        <v>0.0081078627018123</v>
+        <v>0.008109183898018501</v>
       </c>
       <c r="H44">
         <v>0.155029979746117</v>
@@ -3183,7 +3186,7 @@
         <v>0.03781</v>
       </c>
       <c r="L44">
-        <v>0.00128</v>
+        <v>0.00141</v>
       </c>
       <c r="M44">
         <v>0.00842</v>
@@ -3198,19 +3201,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3227,7 +3230,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45">
         <v>0.977</v>
@@ -3242,7 +3245,7 @@
         <v>1.675</v>
       </c>
       <c r="L45">
-        <v>0.42145</v>
+        <v>0.479</v>
       </c>
       <c r="M45">
         <v>1.406</v>
@@ -3257,19 +3260,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3286,7 +3289,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <v>0.977</v>
@@ -3301,7 +3304,7 @@
         <v>1.675</v>
       </c>
       <c r="L46">
-        <v>0.42145</v>
+        <v>0.479</v>
       </c>
       <c r="M46">
         <v>1.406</v>
@@ -3316,19 +3319,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3342,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>0.995</v>
@@ -3357,7 +3360,7 @@
         <v>1.70395</v>
       </c>
       <c r="L47">
-        <v>0.4385</v>
+        <v>0.495</v>
       </c>
       <c r="M47">
         <v>1.43685</v>
@@ -3372,19 +3375,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3398,7 +3401,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>0.995</v>
@@ -3413,7 +3416,7 @@
         <v>1.70395</v>
       </c>
       <c r="L48">
-        <v>0.4385</v>
+        <v>0.495</v>
       </c>
       <c r="M48">
         <v>1.43685</v>
@@ -3428,19 +3431,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3454,7 +3457,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <v>1.27</v>
@@ -3469,7 +3472,7 @@
         <v>1.9815</v>
       </c>
       <c r="L49">
-        <v>0.6965</v>
+        <v>0.79</v>
       </c>
       <c r="M49">
         <v>1.7036</v>
@@ -3484,19 +3487,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3510,7 +3513,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50">
         <v>1.27</v>
@@ -3525,7 +3528,7 @@
         <v>1.9815</v>
       </c>
       <c r="L50">
-        <v>0.6965</v>
+        <v>0.79</v>
       </c>
       <c r="M50">
         <v>1.7036</v>
@@ -3540,19 +3543,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3566,7 +3569,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <v>0.025</v>
@@ -3581,7 +3584,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="L51">
-        <v>0.0275</v>
+        <v>0.0265</v>
       </c>
       <c r="M51">
         <v>0.0413</v>
@@ -3596,19 +3599,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3622,7 +3625,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <v>0.025</v>
@@ -3637,7 +3640,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="L52">
-        <v>0.0275</v>
+        <v>0.0265</v>
       </c>
       <c r="M52">
         <v>0.0413</v>
@@ -3652,19 +3655,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3681,7 +3684,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <v>1.78</v>
@@ -3696,7 +3699,7 @@
         <v>2.938</v>
       </c>
       <c r="L53">
-        <v>1.835</v>
+        <v>1.915</v>
       </c>
       <c r="M53">
         <v>2.3283</v>
@@ -3711,19 +3714,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3740,13 +3743,13 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>0.008999999999999999</v>
       </c>
       <c r="G54">
-        <v>0.0100573307811641</v>
+        <v>0.0100569042525742</v>
       </c>
       <c r="H54">
         <v>0.029</v>
@@ -3770,19 +3773,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3799,13 +3802,13 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>0.008999999999999999</v>
       </c>
       <c r="G55">
-        <v>0.0100573307811641</v>
+        <v>0.0100569042525742</v>
       </c>
       <c r="H55">
         <v>0.029</v>
@@ -3829,19 +3832,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3858,19 +3861,19 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>410</v>
       </c>
       <c r="G56">
-        <v>2157.16975036988</v>
+        <v>2157.53397643179</v>
       </c>
       <c r="H56">
         <v>34000</v>
       </c>
       <c r="I56">
-        <v>11319.9084</v>
+        <v>11331.72754</v>
       </c>
       <c r="J56">
         <v>35.5932203389831</v>
@@ -3894,19 +3897,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3923,19 +3926,19 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57">
         <v>410</v>
       </c>
       <c r="G57">
-        <v>2157.16975036988</v>
+        <v>2157.53397643179</v>
       </c>
       <c r="H57">
         <v>34000</v>
       </c>
       <c r="I57">
-        <v>11319.9084</v>
+        <v>11331.72754</v>
       </c>
       <c r="J57">
         <v>35.5932203389831</v>
@@ -3959,19 +3962,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3988,19 +3991,19 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58">
         <v>410</v>
       </c>
       <c r="G58">
-        <v>2157.16975036988</v>
+        <v>2157.53397643179</v>
       </c>
       <c r="H58">
         <v>34000</v>
       </c>
       <c r="I58">
-        <v>11319.9084</v>
+        <v>11331.72754</v>
       </c>
       <c r="J58">
         <v>35.5932203389831</v>
@@ -4024,19 +4027,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4053,19 +4056,19 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>410</v>
       </c>
       <c r="G59">
-        <v>2157.16975036988</v>
+        <v>2157.53397643179</v>
       </c>
       <c r="H59">
         <v>34000</v>
       </c>
       <c r="I59">
-        <v>11319.9084</v>
+        <v>11331.72754</v>
       </c>
       <c r="J59">
         <v>35.5932203389831</v>
@@ -4089,19 +4092,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4118,13 +4121,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>0.0026</v>
       </c>
       <c r="G60">
-        <v>0.0098708586295222</v>
+        <v>0.0098720847915637</v>
       </c>
       <c r="H60">
         <v>0.155029979746117</v>
@@ -4133,7 +4136,7 @@
         <v>0.04829</v>
       </c>
       <c r="L60">
-        <v>0.00231</v>
+        <v>0.00242</v>
       </c>
       <c r="M60">
         <v>0.01028</v>
@@ -4148,19 +4151,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4177,13 +4180,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <v>0.0026</v>
       </c>
       <c r="G61">
-        <v>0.0098708586295222</v>
+        <v>0.0098720847915637</v>
       </c>
       <c r="H61">
         <v>0.155029979746117</v>
@@ -4192,7 +4195,7 @@
         <v>0.04829</v>
       </c>
       <c r="L61">
-        <v>0.00231</v>
+        <v>0.00242</v>
       </c>
       <c r="M61">
         <v>0.01028</v>
@@ -4207,19 +4210,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4236,7 +4239,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62">
         <v>0.985</v>
@@ -4251,7 +4254,7 @@
         <v>1.6795</v>
       </c>
       <c r="L62">
-        <v>0.4265</v>
+        <v>0.555</v>
       </c>
       <c r="M62">
         <v>1.4094</v>
@@ -4266,19 +4269,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4295,7 +4298,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63">
         <v>0.985</v>
@@ -4310,7 +4313,7 @@
         <v>1.6795</v>
       </c>
       <c r="L63">
-        <v>0.4265</v>
+        <v>0.555</v>
       </c>
       <c r="M63">
         <v>1.4094</v>
@@ -4325,19 +4328,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4351,7 +4354,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <v>1.01</v>
@@ -4366,7 +4369,7 @@
         <v>1.70855</v>
       </c>
       <c r="L64">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="M64">
         <v>1.43762</v>
@@ -4381,19 +4384,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4407,7 +4410,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65">
         <v>1.01</v>
@@ -4422,7 +4425,7 @@
         <v>1.70855</v>
       </c>
       <c r="L65">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="M65">
         <v>1.43762</v>
@@ -4437,19 +4440,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4463,7 +4466,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66">
         <v>1.26</v>
@@ -4478,7 +4481,7 @@
         <v>1.98685</v>
       </c>
       <c r="L66">
-        <v>0.73</v>
+        <v>0.855</v>
       </c>
       <c r="M66">
         <v>1.71576</v>
@@ -4493,19 +4496,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4519,7 +4522,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67">
         <v>1.26</v>
@@ -4534,7 +4537,7 @@
         <v>1.98685</v>
       </c>
       <c r="L67">
-        <v>0.73</v>
+        <v>0.855</v>
       </c>
       <c r="M67">
         <v>1.71576</v>
@@ -4549,19 +4552,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4575,7 +4578,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>0.027</v>
@@ -4590,7 +4593,7 @@
         <v>0.11895</v>
       </c>
       <c r="L68">
-        <v>0.0275</v>
+        <v>0.027</v>
       </c>
       <c r="M68">
         <v>0.0487</v>
@@ -4605,19 +4608,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4631,7 +4634,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>0.027</v>
@@ -4646,7 +4649,7 @@
         <v>0.11895</v>
       </c>
       <c r="L69">
-        <v>0.0275</v>
+        <v>0.027</v>
       </c>
       <c r="M69">
         <v>0.0487</v>
@@ -4661,19 +4664,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4690,7 +4693,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70">
         <v>1.9</v>
@@ -4705,7 +4708,7 @@
         <v>2.914</v>
       </c>
       <c r="L70">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="M70">
         <v>2.399</v>
@@ -4720,19 +4723,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4749,13 +4752,13 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>0.008999999999999999</v>
       </c>
       <c r="G71">
-        <v>0.0102098731540454</v>
+        <v>0.0102094466254555</v>
       </c>
       <c r="H71">
         <v>0.029</v>
@@ -4779,19 +4782,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4808,13 +4811,13 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <v>0.008999999999999999</v>
       </c>
       <c r="G72">
-        <v>0.0102098731540454</v>
+        <v>0.0102094466254555</v>
       </c>
       <c r="H72">
         <v>0.029</v>
@@ -4838,19 +4841,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4867,19 +4870,19 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73">
         <v>420</v>
       </c>
       <c r="G73">
-        <v>2164.8450908935</v>
+        <v>2165.2155967151</v>
       </c>
       <c r="H73">
         <v>34000</v>
       </c>
       <c r="I73">
-        <v>11630.80916</v>
+        <v>11643.70277</v>
       </c>
       <c r="J73">
         <v>37.9310344827586</v>
@@ -4888,7 +4891,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L73">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="M73">
         <v>1645.64</v>
@@ -4903,19 +4906,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4932,19 +4935,19 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>420</v>
       </c>
       <c r="G74">
-        <v>2164.8450908935</v>
+        <v>2165.2155967151</v>
       </c>
       <c r="H74">
         <v>34000</v>
       </c>
       <c r="I74">
-        <v>11630.80916</v>
+        <v>11643.70277</v>
       </c>
       <c r="J74">
         <v>37.9310344827586</v>
@@ -4953,7 +4956,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L74">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="M74">
         <v>1645.64</v>
@@ -4968,19 +4971,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4997,19 +5000,19 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <v>420</v>
       </c>
       <c r="G75">
-        <v>2164.8450908935</v>
+        <v>2165.2155967151</v>
       </c>
       <c r="H75">
         <v>34000</v>
       </c>
       <c r="I75">
-        <v>11630.80916</v>
+        <v>11643.70277</v>
       </c>
       <c r="J75">
         <v>37.9310344827586</v>
@@ -5018,7 +5021,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L75">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="M75">
         <v>1645.64</v>
@@ -5033,19 +5036,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5062,19 +5065,19 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76">
         <v>420</v>
       </c>
       <c r="G76">
-        <v>2164.8450908935</v>
+        <v>2165.2155967151</v>
       </c>
       <c r="H76">
         <v>34000</v>
       </c>
       <c r="I76">
-        <v>11630.80916</v>
+        <v>11643.70277</v>
       </c>
       <c r="J76">
         <v>37.9310344827586</v>
@@ -5083,7 +5086,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L76">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="M76">
         <v>1645.64</v>
@@ -5098,19 +5101,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5127,13 +5130,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F77">
         <v>0.00419</v>
       </c>
       <c r="G77">
-        <v>0.0084761342969707</v>
+        <v>0.008477021637418</v>
       </c>
       <c r="H77">
         <v>0.0719427346999874</v>
@@ -5142,7 +5145,7 @@
         <v>0.04207</v>
       </c>
       <c r="L77">
-        <v>0.00351</v>
+        <v>0.00366</v>
       </c>
       <c r="M77">
         <v>0.01093</v>
@@ -5157,19 +5160,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5186,13 +5189,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F78">
         <v>0.00419</v>
       </c>
       <c r="G78">
-        <v>0.0084761342969707</v>
+        <v>0.008477021637418</v>
       </c>
       <c r="H78">
         <v>0.0719427346999874</v>
@@ -5201,7 +5204,7 @@
         <v>0.04207</v>
       </c>
       <c r="L78">
-        <v>0.00351</v>
+        <v>0.00366</v>
       </c>
       <c r="M78">
         <v>0.01093</v>
@@ -5216,19 +5219,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5245,7 +5248,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F79">
         <v>0.9542</v>
@@ -5260,7 +5263,7 @@
         <v>1.6685</v>
       </c>
       <c r="L79">
-        <v>0.4435</v>
+        <v>0.52</v>
       </c>
       <c r="M79">
         <v>1.4094</v>
@@ -5275,19 +5278,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5304,7 +5307,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <v>0.9542</v>
@@ -5319,7 +5322,7 @@
         <v>1.6685</v>
       </c>
       <c r="L80">
-        <v>0.4435</v>
+        <v>0.52</v>
       </c>
       <c r="M80">
         <v>1.4094</v>
@@ -5334,19 +5337,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5360,7 +5363,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81">
         <v>0.9757</v>
@@ -5375,7 +5378,7 @@
         <v>1.69205</v>
       </c>
       <c r="L81">
-        <v>0.465</v>
+        <v>0.535</v>
       </c>
       <c r="M81">
         <v>1.4241</v>
@@ -5390,19 +5393,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5416,7 +5419,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>0.9757</v>
@@ -5431,7 +5434,7 @@
         <v>1.69205</v>
       </c>
       <c r="L82">
-        <v>0.465</v>
+        <v>0.535</v>
       </c>
       <c r="M82">
         <v>1.4241</v>
@@ -5446,19 +5449,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5472,7 +5475,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <v>1.22</v>
@@ -5487,7 +5490,7 @@
         <v>1.935</v>
       </c>
       <c r="L83">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="M83">
         <v>1.67456</v>
@@ -5502,19 +5505,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5528,7 +5531,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F84">
         <v>1.22</v>
@@ -5543,7 +5546,7 @@
         <v>1.935</v>
       </c>
       <c r="L84">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="M84">
         <v>1.67456</v>
@@ -5558,19 +5561,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5584,7 +5587,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>0.027</v>
@@ -5614,19 +5617,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5640,7 +5643,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>0.027</v>
@@ -5670,19 +5673,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5699,7 +5702,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <v>1.78</v>
@@ -5714,7 +5717,7 @@
         <v>2.6285</v>
       </c>
       <c r="L87">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M87">
         <v>2.1583</v>
@@ -5729,19 +5732,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5758,13 +5761,13 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88">
         <v>0.008999999999999999</v>
       </c>
       <c r="G88">
-        <v>0.0099623461832844</v>
+        <v>0.0099621017496783</v>
       </c>
       <c r="H88">
         <v>0.029</v>
@@ -5788,19 +5791,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5817,13 +5820,13 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <v>0.008999999999999999</v>
       </c>
       <c r="G89">
-        <v>0.0099623461832844</v>
+        <v>0.0099621017496783</v>
       </c>
       <c r="H89">
         <v>0.029</v>
@@ -5847,19 +5850,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5876,7 +5879,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90">
         <v>450</v>
@@ -5897,7 +5900,7 @@
         <v>68.4210526315789</v>
       </c>
       <c r="L90">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="M90">
         <v>1662</v>
@@ -5912,19 +5915,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5941,7 +5944,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91">
         <v>450</v>
@@ -5962,7 +5965,7 @@
         <v>68.4210526315789</v>
       </c>
       <c r="L91">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="M91">
         <v>1662</v>
@@ -5977,19 +5980,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6006,7 +6009,7 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F92">
         <v>450</v>
@@ -6027,7 +6030,7 @@
         <v>68.4210526315789</v>
       </c>
       <c r="L92">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="M92">
         <v>1662</v>
@@ -6042,19 +6045,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6071,7 +6074,7 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93">
         <v>450</v>
@@ -6092,7 +6095,7 @@
         <v>68.4210526315789</v>
       </c>
       <c r="L93">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="M93">
         <v>1662</v>
@@ -6107,19 +6110,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6136,13 +6139,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94">
         <v>0.00533</v>
       </c>
       <c r="G94">
-        <v>0.009206912688541</v>
+        <v>0.0092070491335188</v>
       </c>
       <c r="H94">
         <v>0.0493276240272748</v>
@@ -6151,7 +6154,7 @@
         <v>0.02681</v>
       </c>
       <c r="L94">
-        <v>0.00552</v>
+        <v>0.00533</v>
       </c>
       <c r="M94">
         <v>0.01621</v>
@@ -6166,19 +6169,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6195,13 +6198,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <v>0.00533</v>
       </c>
       <c r="G95">
-        <v>0.009206912688541</v>
+        <v>0.0092070491335188</v>
       </c>
       <c r="H95">
         <v>0.0493276240272748</v>
@@ -6210,7 +6213,7 @@
         <v>0.02681</v>
       </c>
       <c r="L95">
-        <v>0.00552</v>
+        <v>0.00533</v>
       </c>
       <c r="M95">
         <v>0.01621</v>
@@ -6225,19 +6228,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6254,7 +6257,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <v>0.8794999999999999</v>
@@ -6269,7 +6272,7 @@
         <v>1.672</v>
       </c>
       <c r="L96">
-        <v>0.4435</v>
+        <v>0.493</v>
       </c>
       <c r="M96">
         <v>1.2992</v>
@@ -6284,19 +6287,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6313,7 +6316,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97">
         <v>0.8794999999999999</v>
@@ -6328,7 +6331,7 @@
         <v>1.672</v>
       </c>
       <c r="L97">
-        <v>0.4435</v>
+        <v>0.493</v>
       </c>
       <c r="M97">
         <v>1.2992</v>
@@ -6343,19 +6346,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6369,7 +6372,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F98">
         <v>0.895</v>
@@ -6384,7 +6387,7 @@
         <v>1.684</v>
       </c>
       <c r="L98">
-        <v>0.465</v>
+        <v>0.5</v>
       </c>
       <c r="M98">
         <v>1.3512</v>
@@ -6399,19 +6402,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6425,7 +6428,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99">
         <v>0.895</v>
@@ -6440,7 +6443,7 @@
         <v>1.684</v>
       </c>
       <c r="L99">
-        <v>0.465</v>
+        <v>0.5</v>
       </c>
       <c r="M99">
         <v>1.3512</v>
@@ -6455,19 +6458,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6481,7 +6484,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100">
         <v>1.165</v>
@@ -6496,7 +6499,7 @@
         <v>1.946</v>
       </c>
       <c r="L100">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="M100">
         <v>1.5964</v>
@@ -6511,19 +6514,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,7 +6540,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101">
         <v>1.165</v>
@@ -6552,7 +6555,7 @@
         <v>1.946</v>
       </c>
       <c r="L101">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="M101">
         <v>1.5964</v>
@@ -6567,19 +6570,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6593,7 +6596,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102">
         <v>0.027</v>
@@ -6623,19 +6626,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6649,7 +6652,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F103">
         <v>0.027</v>
@@ -6679,19 +6682,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6708,7 +6711,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104">
         <v>1.75</v>
@@ -6723,7 +6726,7 @@
         <v>2.9025</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>1.765</v>
       </c>
       <c r="M104">
         <v>2.4619</v>
@@ -6738,19 +6741,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6767,13 +6770,13 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>0.008999999999999999</v>
       </c>
       <c r="G105">
-        <v>0.0102579472878428</v>
+        <v>0.0102573177267385</v>
       </c>
       <c r="H105">
         <v>0.029</v>
@@ -6797,19 +6800,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6826,13 +6829,13 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F106">
         <v>0.008999999999999999</v>
       </c>
       <c r="G106">
-        <v>0.0102579472878428</v>
+        <v>0.0102573177267385</v>
       </c>
       <c r="H106">
         <v>0.029</v>
@@ -6856,19 +6859,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6885,7 +6888,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107">
         <v>530</v>
@@ -6906,7 +6909,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L107">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="M107">
         <v>2405</v>
@@ -6921,19 +6924,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6950,7 +6953,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108">
         <v>530</v>
@@ -6971,7 +6974,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L108">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="M108">
         <v>2405</v>
@@ -6986,19 +6989,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7015,7 +7018,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109">
         <v>530</v>
@@ -7036,7 +7039,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L109">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="M109">
         <v>2405</v>
@@ -7051,19 +7054,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7080,7 +7083,7 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>530</v>
@@ -7101,7 +7104,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L110">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="M110">
         <v>2405</v>
@@ -7116,19 +7119,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7145,13 +7148,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111">
         <v>0.00533</v>
       </c>
       <c r="G111">
-        <v>0.0106984248320634</v>
+        <v>0.0106979365215143</v>
       </c>
       <c r="H111">
         <v>0.0514401473126152</v>
@@ -7175,19 +7178,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7204,13 +7207,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F112">
         <v>0.00533</v>
       </c>
       <c r="G112">
-        <v>0.0106984248320634</v>
+        <v>0.0106979365215143</v>
       </c>
       <c r="H112">
         <v>0.0514401473126152</v>
@@ -7234,19 +7237,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7263,7 +7266,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <v>0.8115</v>
@@ -7278,7 +7281,7 @@
         <v>1.554</v>
       </c>
       <c r="L113">
-        <v>0.462</v>
+        <v>0.547</v>
       </c>
       <c r="M113">
         <v>1.2728</v>
@@ -7293,19 +7296,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7322,7 +7325,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F114">
         <v>0.8115</v>
@@ -7337,7 +7340,7 @@
         <v>1.554</v>
       </c>
       <c r="L114">
-        <v>0.462</v>
+        <v>0.547</v>
       </c>
       <c r="M114">
         <v>1.2728</v>
@@ -7352,19 +7355,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7378,7 +7381,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F115">
         <v>0.835</v>
@@ -7393,7 +7396,7 @@
         <v>1.598</v>
       </c>
       <c r="L115">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="M115">
         <v>1.2964</v>
@@ -7408,19 +7411,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7434,7 +7437,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116">
         <v>0.835</v>
@@ -7449,7 +7452,7 @@
         <v>1.598</v>
       </c>
       <c r="L116">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="M116">
         <v>1.2964</v>
@@ -7464,19 +7467,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7490,7 +7493,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F117">
         <v>1.165</v>
@@ -7505,7 +7508,7 @@
         <v>1.86</v>
       </c>
       <c r="L117">
-        <v>0.785</v>
+        <v>0.83</v>
       </c>
       <c r="M117">
         <v>1.5692</v>
@@ -7520,19 +7523,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,7 +7549,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118">
         <v>1.165</v>
@@ -7561,7 +7564,7 @@
         <v>1.86</v>
       </c>
       <c r="L118">
-        <v>0.785</v>
+        <v>0.83</v>
       </c>
       <c r="M118">
         <v>1.5692</v>
@@ -7576,19 +7579,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7602,7 +7605,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>0.028</v>
@@ -7617,7 +7620,7 @@
         <v>0.2048</v>
       </c>
       <c r="L119">
-        <v>0.0295</v>
+        <v>0.031</v>
       </c>
       <c r="M119">
         <v>0.06432</v>
@@ -7632,19 +7635,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7658,7 +7661,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F120">
         <v>0.028</v>
@@ -7673,7 +7676,7 @@
         <v>0.2048</v>
       </c>
       <c r="L120">
-        <v>0.0295</v>
+        <v>0.031</v>
       </c>
       <c r="M120">
         <v>0.06432</v>
@@ -7688,19 +7691,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7717,7 +7720,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F121">
         <v>1.75</v>
@@ -7732,7 +7735,7 @@
         <v>3.615</v>
       </c>
       <c r="L121">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="M121">
         <v>2.8167</v>
@@ -7747,19 +7750,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7776,13 +7779,13 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F122">
         <v>0.0105</v>
       </c>
       <c r="G122">
-        <v>0.0113096714257738</v>
+        <v>0.0113090418646696</v>
       </c>
       <c r="H122">
         <v>0.037</v>
@@ -7806,19 +7809,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7835,13 +7838,13 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F123">
         <v>0.0105</v>
       </c>
       <c r="G123">
-        <v>0.0113096714257738</v>
+        <v>0.0113090418646696</v>
       </c>
       <c r="H123">
         <v>0.037</v>
@@ -7865,19 +7868,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7894,13 +7897,13 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124">
-        <v>504</v>
+        <v>503.6</v>
       </c>
       <c r="G124">
-        <v>5793.36842105263</v>
+        <v>5793.37894736842</v>
       </c>
       <c r="H124">
         <v>110000</v>
@@ -7915,7 +7918,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L124">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M124">
         <v>3786</v>
@@ -7930,19 +7933,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7959,13 +7962,13 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F125">
-        <v>504</v>
+        <v>503.6</v>
       </c>
       <c r="G125">
-        <v>5793.36842105263</v>
+        <v>5793.37894736842</v>
       </c>
       <c r="H125">
         <v>110000</v>
@@ -7980,7 +7983,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L125">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M125">
         <v>3786</v>
@@ -7995,19 +7998,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8024,13 +8027,13 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F126">
-        <v>504</v>
+        <v>503.6</v>
       </c>
       <c r="G126">
-        <v>5793.36842105263</v>
+        <v>5793.37894736842</v>
       </c>
       <c r="H126">
         <v>110000</v>
@@ -8045,7 +8048,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L126">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M126">
         <v>3786</v>
@@ -8060,19 +8063,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8089,13 +8092,13 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F127">
-        <v>504</v>
+        <v>503.6</v>
       </c>
       <c r="G127">
-        <v>5793.36842105263</v>
+        <v>5793.37894736842</v>
       </c>
       <c r="H127">
         <v>110000</v>
@@ -8110,7 +8113,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L127">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M127">
         <v>3786</v>
@@ -8125,19 +8128,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8154,13 +8157,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F128">
         <v>0.00658</v>
       </c>
       <c r="G128">
-        <v>0.0128148457219132</v>
+        <v>0.012814262340314</v>
       </c>
       <c r="H128">
         <v>0.0514401473126152</v>
@@ -8169,7 +8172,7 @@
         <v>0.04588</v>
       </c>
       <c r="L128">
-        <v>0.00623</v>
+        <v>0.00617</v>
       </c>
       <c r="M128">
         <v>0.02423</v>
@@ -8184,19 +8187,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8213,13 +8216,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F129">
         <v>0.00658</v>
       </c>
       <c r="G129">
-        <v>0.0128148457219132</v>
+        <v>0.012814262340314</v>
       </c>
       <c r="H129">
         <v>0.0514401473126152</v>
@@ -8228,7 +8231,7 @@
         <v>0.04588</v>
       </c>
       <c r="L129">
-        <v>0.00623</v>
+        <v>0.00617</v>
       </c>
       <c r="M129">
         <v>0.02423</v>
@@ -8243,19 +8246,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8272,7 +8275,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130">
         <v>0.7795</v>
@@ -8287,7 +8290,7 @@
         <v>1.64</v>
       </c>
       <c r="L130">
-        <v>0.511</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="M130">
         <v>1.2564</v>
@@ -8302,19 +8305,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8331,7 +8334,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F131">
         <v>0.7795</v>
@@ -8346,7 +8349,7 @@
         <v>1.64</v>
       </c>
       <c r="L131">
-        <v>0.511</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="M131">
         <v>1.2564</v>
@@ -8361,19 +8364,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8387,7 +8390,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F132">
         <v>0.8100000000000001</v>
@@ -8402,7 +8405,7 @@
         <v>1.664</v>
       </c>
       <c r="L132">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="M132">
         <v>1.2864</v>
@@ -8417,19 +8420,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8443,7 +8446,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F133">
         <v>0.8100000000000001</v>
@@ -8458,7 +8461,7 @@
         <v>1.664</v>
       </c>
       <c r="L133">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="M133">
         <v>1.2864</v>
@@ -8473,19 +8476,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8499,7 +8502,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F134">
         <v>1.14</v>
@@ -8514,7 +8517,7 @@
         <v>2.008</v>
       </c>
       <c r="L134">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="M134">
         <v>1.5964</v>
@@ -8529,19 +8532,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8555,7 +8558,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F135">
         <v>1.14</v>
@@ -8570,7 +8573,7 @@
         <v>2.008</v>
       </c>
       <c r="L135">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="M135">
         <v>1.5964</v>
@@ -8585,19 +8588,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8611,7 +8614,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F136">
         <v>0.0295</v>
@@ -8626,7 +8629,7 @@
         <v>0.2166</v>
       </c>
       <c r="L136">
-        <v>0.0295</v>
+        <v>0.028</v>
       </c>
       <c r="M136">
         <v>0.09356</v>
@@ -8641,19 +8644,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8667,7 +8670,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137">
         <v>0.0295</v>
@@ -8682,7 +8685,7 @@
         <v>0.2166</v>
       </c>
       <c r="L137">
-        <v>0.0295</v>
+        <v>0.028</v>
       </c>
       <c r="M137">
         <v>0.09356</v>
@@ -8697,19 +8700,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8726,7 +8729,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F138">
         <v>1.75</v>
@@ -8741,7 +8744,7 @@
         <v>3.645</v>
       </c>
       <c r="L138">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M138">
         <v>2.8201</v>
@@ -8756,19 +8759,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8785,13 +8788,13 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F139">
         <v>0.011</v>
       </c>
       <c r="G139">
-        <v>0.0117620498761844</v>
+        <v>0.0117614309856074</v>
       </c>
       <c r="H139">
         <v>0.037</v>
@@ -8800,7 +8803,7 @@
         <v>0.0262</v>
       </c>
       <c r="L139">
-        <v>0.0105</v>
+        <v>0.011</v>
       </c>
       <c r="M139">
         <v>0.01647</v>
@@ -8815,19 +8818,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8844,13 +8847,13 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F140">
         <v>0.011</v>
       </c>
       <c r="G140">
-        <v>0.0117620498761844</v>
+        <v>0.0117614309856074</v>
       </c>
       <c r="H140">
         <v>0.037</v>
@@ -8859,7 +8862,7 @@
         <v>0.0262</v>
       </c>
       <c r="L140">
-        <v>0.0105</v>
+        <v>0.011</v>
       </c>
       <c r="M140">
         <v>0.01647</v>
@@ -8874,19 +8877,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8903,13 +8906,13 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F141">
-        <v>466</v>
+        <v>466.2</v>
       </c>
       <c r="G141">
-        <v>5464.44827586207</v>
+        <v>5464.45172413793</v>
       </c>
       <c r="H141">
         <v>110000</v>
@@ -8924,10 +8927,10 @@
         <v>62.0689655172414</v>
       </c>
       <c r="L141">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M141">
-        <v>2850.04</v>
+        <v>2849.968</v>
       </c>
       <c r="N141">
         <v>27160</v>
@@ -8939,19 +8942,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8968,13 +8971,13 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142">
-        <v>466</v>
+        <v>466.2</v>
       </c>
       <c r="G142">
-        <v>5464.44827586207</v>
+        <v>5464.45172413793</v>
       </c>
       <c r="H142">
         <v>110000</v>
@@ -8989,10 +8992,10 @@
         <v>62.0689655172414</v>
       </c>
       <c r="L142">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M142">
-        <v>2850.04</v>
+        <v>2849.968</v>
       </c>
       <c r="N142">
         <v>27160</v>
@@ -9004,19 +9007,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9033,13 +9036,13 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F143">
-        <v>466</v>
+        <v>466.2</v>
       </c>
       <c r="G143">
-        <v>5464.44827586207</v>
+        <v>5464.45172413793</v>
       </c>
       <c r="H143">
         <v>110000</v>
@@ -9054,10 +9057,10 @@
         <v>62.0689655172414</v>
       </c>
       <c r="L143">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M143">
-        <v>2850.04</v>
+        <v>2849.968</v>
       </c>
       <c r="N143">
         <v>27160</v>
@@ -9069,19 +9072,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9098,13 +9101,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F144">
-        <v>466</v>
+        <v>466.2</v>
       </c>
       <c r="G144">
-        <v>5464.44827586207</v>
+        <v>5464.45172413793</v>
       </c>
       <c r="H144">
         <v>110000</v>
@@ -9119,10 +9122,10 @@
         <v>62.0689655172414</v>
       </c>
       <c r="L144">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M144">
-        <v>2850.04</v>
+        <v>2849.968</v>
       </c>
       <c r="N144">
         <v>27160</v>
@@ -9134,19 +9137,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9163,13 +9166,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F145">
         <v>0.0074</v>
       </c>
       <c r="G145">
-        <v>0.0134700020211978</v>
+        <v>0.0134696539164066</v>
       </c>
       <c r="H145">
         <v>0.052395069180857</v>
@@ -9178,7 +9181,7 @@
         <v>0.04535</v>
       </c>
       <c r="L145">
-        <v>0.00903</v>
+        <v>0.00714</v>
       </c>
       <c r="M145">
         <v>0.02541</v>
@@ -9193,19 +9196,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9222,13 +9225,13 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F146">
         <v>0.0074</v>
       </c>
       <c r="G146">
-        <v>0.0134700020211978</v>
+        <v>0.0134696539164066</v>
       </c>
       <c r="H146">
         <v>0.052395069180857</v>
@@ -9237,7 +9240,7 @@
         <v>0.04535</v>
       </c>
       <c r="L146">
-        <v>0.00903</v>
+        <v>0.00714</v>
       </c>
       <c r="M146">
         <v>0.02541</v>
@@ -9252,19 +9255,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9281,7 +9284,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F147">
         <v>0.759</v>
@@ -9296,7 +9299,7 @@
         <v>1.6325</v>
       </c>
       <c r="L147">
-        <v>0.5125</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="M147">
         <v>1.2076</v>
@@ -9311,19 +9314,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U147" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9340,7 +9343,7 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F148">
         <v>0.759</v>
@@ -9355,7 +9358,7 @@
         <v>1.6325</v>
       </c>
       <c r="L148">
-        <v>0.5125</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="M148">
         <v>1.2076</v>
@@ -9370,19 +9373,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U148" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9396,7 +9399,7 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F149">
         <v>0.79</v>
@@ -9411,7 +9414,7 @@
         <v>1.657</v>
       </c>
       <c r="L149">
-        <v>0.545</v>
+        <v>0.62</v>
       </c>
       <c r="M149">
         <v>1.237</v>
@@ -9426,19 +9429,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9452,7 +9455,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F150">
         <v>0.79</v>
@@ -9467,7 +9470,7 @@
         <v>1.657</v>
       </c>
       <c r="L150">
-        <v>0.545</v>
+        <v>0.62</v>
       </c>
       <c r="M150">
         <v>1.237</v>
@@ -9482,19 +9485,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9508,7 +9511,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F151">
         <v>1.13</v>
@@ -9523,7 +9526,7 @@
         <v>1.9015</v>
       </c>
       <c r="L151">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M151">
         <v>1.5741</v>
@@ -9538,19 +9541,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9564,7 +9567,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F152">
         <v>1.13</v>
@@ -9579,7 +9582,7 @@
         <v>1.9015</v>
       </c>
       <c r="L152">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M152">
         <v>1.5741</v>
@@ -9594,19 +9597,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9620,7 +9623,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F153">
         <v>0.031</v>
@@ -9635,7 +9638,7 @@
         <v>0.21615</v>
       </c>
       <c r="L153">
-        <v>0.0295</v>
+        <v>0.028</v>
       </c>
       <c r="M153">
         <v>0.08863</v>
@@ -9650,19 +9653,19 @@
         <v>5496951.677</v>
       </c>
       <c r="Q153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9676,7 +9679,7 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F154">
         <v>0.031</v>
@@ -9691,7 +9694,7 @@
         <v>0.21615</v>
       </c>
       <c r="L154">
-        <v>0.0295</v>
+        <v>0.028</v>
       </c>
       <c r="M154">
         <v>0.08863</v>
@@ -9706,19 +9709,969 @@
         <v>5496951.677</v>
       </c>
       <c r="Q154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155">
+        <v>0.01</v>
+      </c>
+      <c r="G155">
+        <v>0.0116597360703531</v>
+      </c>
+      <c r="H155">
+        <v>0.037</v>
+      </c>
+      <c r="I155">
+        <v>0.02855</v>
+      </c>
+      <c r="L155">
+        <v>0.01</v>
+      </c>
+      <c r="M155">
+        <v>0.01747</v>
+      </c>
+      <c r="N155">
+        <v>0.02356</v>
+      </c>
+      <c r="O155">
+        <v>1827830.498</v>
+      </c>
+      <c r="P155">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>55</v>
+      </c>
+      <c r="R155" t="s">
+        <v>56</v>
+      </c>
+      <c r="S155" t="s">
+        <v>57</v>
+      </c>
+      <c r="T155" t="s">
+        <v>58</v>
+      </c>
+      <c r="U155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156">
+        <v>0.01</v>
+      </c>
+      <c r="G156">
+        <v>0.0116597360703531</v>
+      </c>
+      <c r="H156">
+        <v>0.037</v>
+      </c>
+      <c r="I156">
+        <v>0.02855</v>
+      </c>
+      <c r="L156">
+        <v>0.01</v>
+      </c>
+      <c r="M156">
+        <v>0.01747</v>
+      </c>
+      <c r="N156">
+        <v>0.02356</v>
+      </c>
+      <c r="O156">
+        <v>1827830.498</v>
+      </c>
+      <c r="P156">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>55</v>
+      </c>
+      <c r="R156" t="s">
+        <v>56</v>
+      </c>
+      <c r="S156" t="s">
+        <v>57</v>
+      </c>
+      <c r="T156" t="s">
+        <v>58</v>
+      </c>
+      <c r="U156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157">
+        <v>293.2</v>
+      </c>
+      <c r="G157">
+        <v>5333.58983050847</v>
+      </c>
+      <c r="H157">
+        <v>110000</v>
+      </c>
+      <c r="I157">
+        <v>32054.5</v>
+      </c>
+      <c r="J157">
+        <v>37.2881355932203</v>
+      </c>
+      <c r="K157">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="L157">
+        <v>215.2</v>
+      </c>
+      <c r="M157">
+        <v>2822.564</v>
+      </c>
+      <c r="N157">
+        <v>26680</v>
+      </c>
+      <c r="O157">
+        <v>1827830.498</v>
+      </c>
+      <c r="P157">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>55</v>
+      </c>
+      <c r="R157" t="s">
+        <v>56</v>
+      </c>
+      <c r="S157" t="s">
+        <v>57</v>
+      </c>
+      <c r="T157" t="s">
+        <v>58</v>
+      </c>
+      <c r="U157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" t="s">
+        <v>54</v>
+      </c>
+      <c r="F158">
+        <v>293.2</v>
+      </c>
+      <c r="G158">
+        <v>5333.58983050847</v>
+      </c>
+      <c r="H158">
+        <v>110000</v>
+      </c>
+      <c r="I158">
+        <v>32054.5</v>
+      </c>
+      <c r="J158">
+        <v>37.2881355932203</v>
+      </c>
+      <c r="K158">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="L158">
+        <v>215.2</v>
+      </c>
+      <c r="M158">
+        <v>2822.564</v>
+      </c>
+      <c r="N158">
+        <v>26680</v>
+      </c>
+      <c r="O158">
+        <v>1827830.498</v>
+      </c>
+      <c r="P158">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>55</v>
+      </c>
+      <c r="R158" t="s">
+        <v>56</v>
+      </c>
+      <c r="S158" t="s">
+        <v>57</v>
+      </c>
+      <c r="T158" t="s">
+        <v>58</v>
+      </c>
+      <c r="U158" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="s">
+        <v>42</v>
+      </c>
+      <c r="D159" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159">
+        <v>293.2</v>
+      </c>
+      <c r="G159">
+        <v>5333.58983050847</v>
+      </c>
+      <c r="H159">
+        <v>110000</v>
+      </c>
+      <c r="I159">
+        <v>32054.5</v>
+      </c>
+      <c r="J159">
+        <v>37.2881355932203</v>
+      </c>
+      <c r="K159">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="L159">
+        <v>215.2</v>
+      </c>
+      <c r="M159">
+        <v>2822.564</v>
+      </c>
+      <c r="N159">
+        <v>26680</v>
+      </c>
+      <c r="O159">
+        <v>1827830.498</v>
+      </c>
+      <c r="P159">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>55</v>
+      </c>
+      <c r="R159" t="s">
+        <v>56</v>
+      </c>
+      <c r="S159" t="s">
+        <v>57</v>
+      </c>
+      <c r="T159" t="s">
+        <v>58</v>
+      </c>
+      <c r="U159" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160">
+        <v>293.2</v>
+      </c>
+      <c r="G160">
+        <v>5333.58983050847</v>
+      </c>
+      <c r="H160">
+        <v>110000</v>
+      </c>
+      <c r="I160">
+        <v>32054.5</v>
+      </c>
+      <c r="J160">
+        <v>37.2881355932203</v>
+      </c>
+      <c r="K160">
+        <v>52.5423728813559</v>
+      </c>
+      <c r="L160">
+        <v>215.2</v>
+      </c>
+      <c r="M160">
+        <v>2822.564</v>
+      </c>
+      <c r="N160">
+        <v>26680</v>
+      </c>
+      <c r="O160">
+        <v>1827830.498</v>
+      </c>
+      <c r="P160">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>55</v>
+      </c>
+      <c r="R160" t="s">
+        <v>56</v>
+      </c>
+      <c r="S160" t="s">
+        <v>57</v>
+      </c>
+      <c r="T160" t="s">
+        <v>58</v>
+      </c>
+      <c r="U160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" t="s">
+        <v>54</v>
+      </c>
+      <c r="F161">
+        <v>0.0074</v>
+      </c>
+      <c r="G161">
+        <v>0.0130826982491583</v>
+      </c>
+      <c r="H161">
+        <v>0.052395069180857</v>
+      </c>
+      <c r="I161">
+        <v>0.04508</v>
+      </c>
+      <c r="L161">
+        <v>0.0074</v>
+      </c>
+      <c r="M161">
+        <v>0.02495</v>
+      </c>
+      <c r="N161">
+        <v>0.04266</v>
+      </c>
+      <c r="O161">
+        <v>1827830.498</v>
+      </c>
+      <c r="P161">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>55</v>
+      </c>
+      <c r="R161" t="s">
+        <v>56</v>
+      </c>
+      <c r="S161" t="s">
+        <v>57</v>
+      </c>
+      <c r="T161" t="s">
+        <v>58</v>
+      </c>
+      <c r="U161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162">
+        <v>0.0074</v>
+      </c>
+      <c r="G162">
+        <v>0.0130826982491583</v>
+      </c>
+      <c r="H162">
+        <v>0.052395069180857</v>
+      </c>
+      <c r="I162">
+        <v>0.04508</v>
+      </c>
+      <c r="L162">
+        <v>0.0074</v>
+      </c>
+      <c r="M162">
+        <v>0.02495</v>
+      </c>
+      <c r="N162">
+        <v>0.04266</v>
+      </c>
+      <c r="O162">
+        <v>1827830.498</v>
+      </c>
+      <c r="P162">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>55</v>
+      </c>
+      <c r="R162" t="s">
+        <v>56</v>
+      </c>
+      <c r="S162" t="s">
+        <v>57</v>
+      </c>
+      <c r="T162" t="s">
+        <v>58</v>
+      </c>
+      <c r="U162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163" t="s">
+        <v>54</v>
+      </c>
+      <c r="F163">
+        <v>0.703</v>
+      </c>
+      <c r="G163">
+        <v>0.773677966101695</v>
+      </c>
+      <c r="H163">
+        <v>1.86</v>
+      </c>
+      <c r="I163">
+        <v>1.5005</v>
+      </c>
+      <c r="L163">
+        <v>0.591</v>
+      </c>
+      <c r="M163">
+        <v>1.1341</v>
+      </c>
+      <c r="N163">
+        <v>1.3712</v>
+      </c>
+      <c r="O163">
+        <v>1827830.498</v>
+      </c>
+      <c r="P163">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>55</v>
+      </c>
+      <c r="R163" t="s">
+        <v>56</v>
+      </c>
+      <c r="S163" t="s">
+        <v>57</v>
+      </c>
+      <c r="T163" t="s">
+        <v>58</v>
+      </c>
+      <c r="U163" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" t="s">
+        <v>54</v>
+      </c>
+      <c r="F164">
+        <v>0.703</v>
+      </c>
+      <c r="G164">
+        <v>0.773677966101695</v>
+      </c>
+      <c r="H164">
+        <v>1.86</v>
+      </c>
+      <c r="I164">
+        <v>1.5005</v>
+      </c>
+      <c r="L164">
+        <v>0.591</v>
+      </c>
+      <c r="M164">
+        <v>1.1341</v>
+      </c>
+      <c r="N164">
+        <v>1.3712</v>
+      </c>
+      <c r="O164">
+        <v>1827830.498</v>
+      </c>
+      <c r="P164">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>55</v>
+      </c>
+      <c r="R164" t="s">
+        <v>56</v>
+      </c>
+      <c r="S164" t="s">
+        <v>57</v>
+      </c>
+      <c r="T164" t="s">
+        <v>58</v>
+      </c>
+      <c r="U164" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" t="s">
+        <v>53</v>
+      </c>
+      <c r="E165" t="s">
+        <v>54</v>
+      </c>
+      <c r="F165">
+        <v>0.76</v>
+      </c>
+      <c r="G165">
+        <v>0.802033898305085</v>
+      </c>
+      <c r="H165">
+        <v>1.89</v>
+      </c>
+      <c r="I165">
+        <v>1.5665</v>
+      </c>
+      <c r="L165">
+        <v>0.64</v>
+      </c>
+      <c r="M165">
+        <v>1.15</v>
+      </c>
+      <c r="N165">
+        <v>1.3956</v>
+      </c>
+      <c r="O165">
+        <v>1827830.498</v>
+      </c>
+      <c r="P165">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>55</v>
+      </c>
+      <c r="R165" t="s">
+        <v>56</v>
+      </c>
+      <c r="S165" t="s">
+        <v>57</v>
+      </c>
+      <c r="T165" t="s">
+        <v>58</v>
+      </c>
+      <c r="U165" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>53</v>
+      </c>
+      <c r="E166" t="s">
+        <v>54</v>
+      </c>
+      <c r="F166">
+        <v>0.76</v>
+      </c>
+      <c r="G166">
+        <v>0.802033898305085</v>
+      </c>
+      <c r="H166">
+        <v>1.89</v>
+      </c>
+      <c r="I166">
+        <v>1.5665</v>
+      </c>
+      <c r="L166">
+        <v>0.64</v>
+      </c>
+      <c r="M166">
+        <v>1.15</v>
+      </c>
+      <c r="N166">
+        <v>1.3956</v>
+      </c>
+      <c r="O166">
+        <v>1827830.498</v>
+      </c>
+      <c r="P166">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>55</v>
+      </c>
+      <c r="R166" t="s">
+        <v>56</v>
+      </c>
+      <c r="S166" t="s">
+        <v>57</v>
+      </c>
+      <c r="T166" t="s">
+        <v>58</v>
+      </c>
+      <c r="U166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167">
+        <v>1.09</v>
+      </c>
+      <c r="G167">
+        <v>1.10305084745763</v>
+      </c>
+      <c r="H167">
+        <v>2.08</v>
+      </c>
+      <c r="I167">
+        <v>1.8745</v>
+      </c>
+      <c r="L167">
+        <v>0.88</v>
+      </c>
+      <c r="M167">
+        <v>1.5447</v>
+      </c>
+      <c r="N167">
+        <v>1.699</v>
+      </c>
+      <c r="O167">
+        <v>1827830.498</v>
+      </c>
+      <c r="P167">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>55</v>
+      </c>
+      <c r="R167" t="s">
+        <v>56</v>
+      </c>
+      <c r="S167" t="s">
+        <v>57</v>
+      </c>
+      <c r="T167" t="s">
+        <v>58</v>
+      </c>
+      <c r="U167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" t="s">
+        <v>53</v>
+      </c>
+      <c r="E168" t="s">
+        <v>54</v>
+      </c>
+      <c r="F168">
+        <v>1.09</v>
+      </c>
+      <c r="G168">
+        <v>1.10305084745763</v>
+      </c>
+      <c r="H168">
+        <v>2.08</v>
+      </c>
+      <c r="I168">
+        <v>1.8745</v>
+      </c>
+      <c r="L168">
+        <v>0.88</v>
+      </c>
+      <c r="M168">
+        <v>1.5447</v>
+      </c>
+      <c r="N168">
+        <v>1.699</v>
+      </c>
+      <c r="O168">
+        <v>1827830.498</v>
+      </c>
+      <c r="P168">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>55</v>
+      </c>
+      <c r="R168" t="s">
+        <v>56</v>
+      </c>
+      <c r="S168" t="s">
+        <v>57</v>
+      </c>
+      <c r="T168" t="s">
+        <v>58</v>
+      </c>
+      <c r="U168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
+      </c>
+      <c r="F169">
+        <v>0.029</v>
+      </c>
+      <c r="G169">
+        <v>0.0549322033898305</v>
+      </c>
+      <c r="H169">
+        <v>0.336</v>
+      </c>
+      <c r="I169">
+        <v>0.21615</v>
+      </c>
+      <c r="L169">
+        <v>0.027</v>
+      </c>
+      <c r="M169">
+        <v>0.07181999999999999</v>
+      </c>
+      <c r="N169">
+        <v>0.17788</v>
+      </c>
+      <c r="O169">
+        <v>1827830.498</v>
+      </c>
+      <c r="P169">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>55</v>
+      </c>
+      <c r="R169" t="s">
+        <v>56</v>
+      </c>
+      <c r="S169" t="s">
+        <v>57</v>
+      </c>
+      <c r="T169" t="s">
+        <v>58</v>
+      </c>
+      <c r="U169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170">
+        <v>0.029</v>
+      </c>
+      <c r="G170">
+        <v>0.0549322033898305</v>
+      </c>
+      <c r="H170">
+        <v>0.336</v>
+      </c>
+      <c r="I170">
+        <v>0.21615</v>
+      </c>
+      <c r="L170">
+        <v>0.027</v>
+      </c>
+      <c r="M170">
+        <v>0.07181999999999999</v>
+      </c>
+      <c r="N170">
+        <v>0.17788</v>
+      </c>
+      <c r="O170">
+        <v>1827830.498</v>
+      </c>
+      <c r="P170">
+        <v>5496951.677</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>55</v>
+      </c>
+      <c r="R170" t="s">
+        <v>56</v>
+      </c>
+      <c r="S170" t="s">
+        <v>57</v>
+      </c>
+      <c r="T170" t="s">
+        <v>58</v>
+      </c>
+      <c r="U170" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
